--- a/biology/Botanique/Eupatorium_lindleyanum/Eupatorium_lindleyanum.xlsx
+++ b/biology/Botanique/Eupatorium_lindleyanum/Eupatorium_lindleyanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupatorium lindleyanum est une espèce de plantes à fleurs dicotylédones de la famille des Asteraceae (Composées) originaire d'Asie de l'Est.
 C'est une plante herbacée vivace, rhizomateuse, pouvant atteindre 1,5 m de haut, qui pousse dans les endroits humides et ombragés, dans les forêts ou les prairies.
-Eupatorium lindleyanum est traditionnellement utilisé en médecine populaire dans différents pays asiatiques pour ses effets thérapeutiques sur la trachéite et l'angine[2].
+Eupatorium lindleyanum est traditionnellement utilisé en médecine populaire dans différents pays asiatiques pour ses effets thérapeutiques sur la trachéite et l'angine.
 </t>
         </is>
       </c>
@@ -515,14 +527,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Plants of the World Online (POWO)[3]  :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World Online (POWO)  :
 Eupatorium kirilowii Turcz.
 Eupatorium lindleyanum var. trifoliatum Makino
 Eupatorium sachalinense f. aureoreticulatum Makino
-Eupatorium subtetragonum Miq.
-Variétés
-Selon Tropicos                                           (13 janvier 2021)[1] (Attention liste brute contenant possiblement des synonymes) :
+Eupatorium subtetragonum Miq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eupatorium_lindleyanum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupatorium_lindleyanum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (13 janvier 2021) (Attention liste brute contenant possiblement des synonymes) :
 Eupatorium lindleyanum var. eglandulosum Kitam.
 Eupatorium lindleyanum var. lindleyanum
 Eupatorium lindleyanum var. trifoliolatum Makino
